--- a/608-ProjectData/df-agencybyqtr2.xlsx
+++ b/608-ProjectData/df-agencybyqtr2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dom Cobb\Documents\GitHub\2017-01-608\608-ProjectData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22995" windowHeight="10290"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22995" windowHeight="10290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="agencybyqtr" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>All</t>
   </si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>Agency</t>
+  </si>
+  <si>
+    <t>AvgHires</t>
+  </si>
+  <si>
+    <t>FY18Budget</t>
   </si>
 </sst>
 </file>
@@ -139,11 +151,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -192,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1142,262 @@
         <v>7345</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>ROUND(AVERAGE(B2:B13),0)</f>
+        <v>419</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:P14" si="0">ROUND(AVERAGE(C2:C13),0)</f>
+        <v>617</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1091</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1119</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>672</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1893</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>6764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>419</v>
+      </c>
+      <c r="C2">
+        <v>3071389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>617</v>
+      </c>
+      <c r="C3">
+        <v>1428326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>189</v>
+      </c>
+      <c r="C4">
+        <v>1186207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <v>351848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>396</v>
+      </c>
+      <c r="C6">
+        <v>1408102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>197</v>
+      </c>
+      <c r="C7">
+        <v>1609290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>183776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>534</v>
+      </c>
+      <c r="C9">
+        <v>1566207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>373</v>
+      </c>
+      <c r="C10">
+        <v>961532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>1091</v>
+      </c>
+      <c r="C11">
+        <v>493309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1119</v>
+      </c>
+      <c r="C12">
+        <v>1674029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>672</v>
+      </c>
+      <c r="C13">
+        <v>2020684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>755</v>
+      </c>
+      <c r="C14">
+        <v>9858614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1893</v>
+      </c>
+      <c r="C15">
+        <v>5568021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6764</v>
+      </c>
+      <c r="C16">
+        <v>31381334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
